--- a/Assets/Resources/CSV.data/UpgradeStat.xlsx
+++ b/Assets/Resources/CSV.data/UpgradeStat.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_Brotatos\Assets\Resources\CSV.data\StatInfo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_Brotatos\Assets\Resources\CSV.data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
-  <si>
-    <t>UpgradeNum</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>심장</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -149,6 +146,57 @@
   </si>
   <si>
     <t>티어 4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpgradeCode</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP_UP</t>
+  </si>
+  <si>
+    <t>REGEN_UP</t>
+  </si>
+  <si>
+    <t>BLOOD_UP</t>
+  </si>
+  <si>
+    <t>DAMAGE_UP</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MELEEDM_UP</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RANGEDM_UP</t>
+  </si>
+  <si>
+    <t>ATKSPEED_UP</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRITICAL_UP</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENGINE_UP</t>
+  </si>
+  <si>
+    <t>RANGE_UP</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARMOR_UP</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVASION_UP</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPEED_UP</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1091,7 +1139,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1103,36 +1153,36 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="D2" s="2">
         <v>3</v>
@@ -1148,14 +1198,14 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>1</v>
+      <c r="A3" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
@@ -1171,14 +1221,14 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>2</v>
+      <c r="A4" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -1194,14 +1244,14 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>3</v>
+      <c r="A5" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2">
         <v>5</v>
@@ -1217,14 +1267,14 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>4</v>
+      <c r="A6" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2">
         <v>2</v>
@@ -1240,14 +1290,14 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>5</v>
+      <c r="A7" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -1263,14 +1313,14 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>6</v>
+      <c r="A8" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2">
         <v>5</v>
@@ -1286,14 +1336,14 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>7</v>
+      <c r="A9" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="2">
         <v>3</v>
@@ -1309,14 +1359,14 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>8</v>
+      <c r="A10" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2">
         <v>2</v>
@@ -1332,14 +1382,14 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>9</v>
+      <c r="A11" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="2">
         <v>15</v>
@@ -1355,14 +1405,14 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>10</v>
+      <c r="A12" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
@@ -1378,14 +1428,14 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>11</v>
+      <c r="A13" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="2">
         <v>3</v>
@@ -1401,14 +1451,14 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>12</v>
+      <c r="A14" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="D14" s="2">
         <v>3</v>

--- a/Assets/Resources/CSV.data/UpgradeStat.xlsx
+++ b/Assets/Resources/CSV.data/UpgradeStat.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>심장</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -81,18 +81,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>속도</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>흡혈</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>대미지</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>근거리 대미지</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -101,14 +89,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>공격 속도</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>치명타율</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>엔지니어링</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -121,10 +101,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>회피</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>업그레이드 이름</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -197,6 +173,64 @@
   </si>
   <si>
     <t>SPEED_UP</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ELEMENTALDM_UP</t>
+  </si>
+  <si>
+    <t>LUCK_UP</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>HARVEST_UP</t>
+  </si>
+  <si>
+    <t>뇌</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>원소 대미지</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>코</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>손</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>행운</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>수확</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>% 생명 훔침</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>% 대미지</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>% 공격 속도</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>% 치명타율</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>% 회피</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>% 속도</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1137,15 +1171,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.25" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.75" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="2"/>
@@ -1153,30 +1187,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -1199,7 +1233,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -1222,13 +1256,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -1245,13 +1279,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2">
         <v>5</v>
@@ -1268,13 +1302,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2">
         <v>2</v>
@@ -1291,13 +1325,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -1314,151 +1348,151 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="D8" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E8" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F8" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G8" s="2">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="D9" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E9" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G9" s="2">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="D10" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F10" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G10" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D11" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E11" s="2">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="F11" s="2">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="G11" s="2">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D12" s="2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E12" s="2">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F12" s="2">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="G12" s="2">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2">
         <v>3</v>
       </c>
-      <c r="E13" s="2">
-        <v>6</v>
-      </c>
-      <c r="F13" s="2">
-        <v>9</v>
-      </c>
       <c r="G13" s="2">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="D14" s="2">
         <v>3</v>
@@ -1470,6 +1504,75 @@
         <v>9</v>
       </c>
       <c r="G14" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="2">
+        <v>5</v>
+      </c>
+      <c r="E15" s="2">
+        <v>10</v>
+      </c>
+      <c r="F15" s="2">
+        <v>15</v>
+      </c>
+      <c r="G15" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="2">
+        <v>5</v>
+      </c>
+      <c r="E16" s="2">
+        <v>8</v>
+      </c>
+      <c r="F16" s="2">
+        <v>10</v>
+      </c>
+      <c r="G16" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="2">
+        <v>3</v>
+      </c>
+      <c r="E17" s="2">
+        <v>6</v>
+      </c>
+      <c r="F17" s="2">
+        <v>9</v>
+      </c>
+      <c r="G17" s="2">
         <v>12</v>
       </c>
     </row>
